--- a/data/HR1/Market Data/cs1_market_data_2040.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8008DC-27FF-4130-89C7-019757983DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD6D7A-C18B-428D-9266-E4B72E1B3E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1202,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/data/HR1/Market Data/cs1_market_data_2040.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD6D7A-C18B-428D-9266-E4B72E1B3E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8D77F-E364-4096-A686-3948B380ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -146,6 +146,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>
@@ -155,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1418,99 +1421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.74242559871766</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.3819261490232</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.54992551269237</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.28071935392859</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.40722715637099</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.22770906612982</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.76626333685317</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.12529951733541</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>259.48433569781764</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.20240805878211</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.92640324038666</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1519,99 +1522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.15530431878176</v>
+        <v>186.54318174524218</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.11282984157199</v>
+        <v>181.82999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.52242923705774</v>
+        <v>193.06961070637698</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.76668338623216</v>
+        <v>200.28020796559579</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.94578142709435</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.58686579855242</v>
+        <v>204.82000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.26632361282333</v>
+        <v>206.91</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.94578142709435</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.2279501700105</v>
+        <v>200.64000000000001</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.15120328438488</v>
+        <v>188.10000000000002</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.83066109865578</v>
+        <v>190.19</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.18957672719768</v>
+        <v>194.37</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.86903454146864</v>
+        <v>196.46</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.18957672719768</v>
+        <v>194.37</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.83066109865578</v>
+        <v>190.19</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.83066109865578</v>
+        <v>190.19</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.51011891292674</v>
+        <v>192.28</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.18957672719768</v>
+        <v>194.37</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.79228765584298</v>
+        <v>183.92000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.63008307836731</v>
+        <v>167.41329952822622</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1620,99 +1623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.74242559871766</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.3819261490232</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.54992551269237</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.28071935392859</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.40722715637099</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.22770906612982</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.76626333685317</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.12529951733541</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>259.48433569781764</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.20240805878211</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.92640324038666</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1721,99 +1724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>264.32954687865356</v>
+        <v>206.17930613947823</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.65102245647438</v>
+        <v>200.97000000000003</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>273.577421788327</v>
+        <v>213.39272762283775</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>283.79475532162502</v>
+        <v>221.36233511986907</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>296.15060052468317</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.22758851418951</v>
+        <v>226.38000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>293.18909451943637</v>
+        <v>228.69000000000003</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>296.15060052468317</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>284.30457650369584</v>
+        <v>221.76000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.5355404722149</v>
+        <v>207.90000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.49704647746171</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42005848795537</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>278.38156449320218</v>
+        <v>217.14000000000001</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42005848795537</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.49704647746171</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.49704647746171</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>272.45855248270851</v>
+        <v>212.52</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42005848795537</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.61252846172124</v>
+        <v>203.28000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.22272340240605</v>
+        <v>185.03575211014481</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1822,99 +1825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.91666815858946</v>
+        <v>215.99736833659625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.92011876392553</v>
+        <v>210.54000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>286.60491806396163</v>
+        <v>223.55428608106811</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.30879128932145</v>
+        <v>231.90339869700568</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>310.25301007347764</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>304.04794987200813</v>
+        <v>237.16000000000005</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>307.15047997274286</v>
+        <v>239.58000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>310.25301007347764</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.84288967053857</v>
+        <v>232.32000000000005</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.22770906612988</v>
+        <v>217.80000000000004</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.33023916686466</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.53529936833422</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>291.63782946906895</v>
+        <v>227.48000000000002</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.53529936833422</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.33023916686466</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.33023916686466</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.43276926759938</v>
+        <v>222.64000000000001</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.53529936833422</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>273.02264886466031</v>
+        <v>212.96000000000004</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.51904356442537</v>
+        <v>193.84697840110408</v>
       </c>
     </row>
   </sheetData>
@@ -2016,99 +2019,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.97107548985986</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.76703048556442</v>
+        <v>156.6</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.17721178311191</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.13877038048702</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.15136767339442</v>
+        <v>176.4</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.45903469046988</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.53603363924353</v>
+        <v>172.8</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.69003153679077</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.92069960509261</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.30536557094169</v>
+        <v>165.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.07469750263988</v>
+        <v>158.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.84887537849815</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2117,99 +2120,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.67252171536686</v>
+        <v>152.62623960974358</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.72867896128619</v>
+        <v>148.76999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.51835119395633</v>
+        <v>157.96604512339934</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.08183186146266</v>
+        <v>163.86562469912383</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.22836662216804</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.84379928972467</v>
+        <v>167.57999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.0360829559464</v>
+        <v>169.29000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.22836662216804</v>
+        <v>171</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.45923195728133</v>
+        <v>164.16</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>197.30552995995126</v>
+        <v>153.9</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.49781362617293</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8823809586163</v>
+        <v>159.03</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.07466462483796</v>
+        <v>160.74</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8823809586163</v>
+        <v>159.03</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.49781362617293</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.49781362617293</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.6900972923946</v>
+        <v>157.32</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8823809586163</v>
+        <v>159.03</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.92096262750786</v>
+        <v>150.47999999999999</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.60643160957324</v>
+        <v>136.97451779582144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2218,99 +2221,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.97107548985986</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.76703048556442</v>
+        <v>156.6</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.17721178311191</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.13877038048702</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.15136767339442</v>
+        <v>176.4</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.45903469046988</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.53603363924353</v>
+        <v>172.8</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.69003153679077</v>
+        <v>162</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.92069960509261</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.30536557094169</v>
+        <v>165.6</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.07469750263988</v>
+        <v>158.4</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.84887537849815</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2319,99 +2322,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.26962926435289</v>
+        <v>168.69215956866398</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.80538200984265</v>
+        <v>164.43</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.83607237226752</v>
+        <v>174.59404987323086</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.1957088995114</v>
+        <v>181.11463782534742</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.30503679292258</v>
+        <v>189</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.45893605706416</v>
+        <v>185.22000000000003</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.88198642499339</v>
+        <v>187.11</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.30503679292258</v>
+        <v>189</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.61283532120572</v>
+        <v>181.44000000000003</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.07453311363031</v>
+        <v>170.1</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.343684217418</v>
+        <v>175.77</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.76673458534725</v>
+        <v>177.66000000000003</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.343684217418</v>
+        <v>175.77</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.49758348155956</v>
+        <v>171.99</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.49758348155956</v>
+        <v>171.99</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.92063384948878</v>
+        <v>173.88</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.343684217418</v>
+        <v>175.77</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.2284323777719</v>
+        <v>166.32000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.09131914742306</v>
+        <v>151.39288809011845</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2420,99 +2423,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.56818303884589</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.8437335341209</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.49493296142313</v>
+        <v>182.90805224814662</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.25264741853576</v>
+        <v>189.73914438845921</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.76650444073388</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.30493815951689</v>
+        <v>196.02000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.68963700316792</v>
+        <v>190.08000000000004</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.45903469046988</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.99746840925292</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.07433584681888</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.61276956560189</v>
+        <v>186.12000000000003</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.07433584681888</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.99746840925292</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.99746840925292</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.53590212803584</v>
+        <v>182.16</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.07433584681888</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.38216725290388</v>
+        <v>174.24</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.33376291634798</v>
+        <v>158.60207323726695</v>
       </c>
     </row>
   </sheetData>
@@ -2616,99 +2619,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.85675054428873</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.06853005730292</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.5425794334721</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.37082858279371</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.42807886635316</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.29071308792732</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>236.86356864790213</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.7097448672078</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.40744634171699</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>243.10938050878869</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.58772074771511</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.78086774198482</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.80661291852812</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.30993471504269</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.55145571317195</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.16357631652738</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.58002268475693</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.70774856452769</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>165.86374686169802</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.38652296610698</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.33009447169755</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.02562142973073</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.91253176013262</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.38763930944239</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2717,99 +2720,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.41391301707429</v>
+        <v>169.58471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.16510355443776</v>
+        <v>161.59055168651113</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.8654504617985</v>
+        <v>158.2367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.00228715365401</v>
+        <v>153.66346801887096</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>198.95667492303551</v>
+        <v>155.18790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.37617743353096</v>
+        <v>161.75519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.02039021550704</v>
+        <v>175.51782791488816</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>233.42425762384741</v>
+        <v>182.07291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>243.58707402463116</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.95391148334923</v>
+        <v>180.14602522545653</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.70833471032935</v>
+        <v>176.05443050162074</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>204.99182435488558</v>
+        <v>159.89537533296965</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.31628227260171</v>
+        <v>155.46840399242595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.34443797929055</v>
+        <v>132.87011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.22388292751333</v>
+        <v>138.23614365030969</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.705397500701</v>
+        <v>125.35158381206071</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>156.35102155051905</v>
+        <v>121.95513334831028</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.5223611363013</v>
+        <v>121.30877114156424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>157.57055951861309</v>
+        <v>122.9063833884271</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.96719681780164</v>
+        <v>139.59594338714336</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>216.91358974811266</v>
+        <v>169.19445425077831</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>216.62434035824418</v>
+        <v>168.96883725408392</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.11690517212597</v>
+        <v>159.99293943964827</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.11825734397027</v>
+        <v>152.19390866202383</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2818,99 +2821,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.85675054428873</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.06853005730292</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.5425794334721</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.37082858279371</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.42807886635316</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.29071308792732</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>236.86356864790213</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.7097448672078</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.40744634171699</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>243.10938050878869</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.58772074771511</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.78086774198482</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.80661291852812</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.30993471504269</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.55145571317195</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.16357631652738</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.58002268475693</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.70774856452769</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>165.86374686169802</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.38652296610698</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.33009447169755</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.02562142973073</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.91253176013262</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.38763930944239</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2919,99 +2922,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>240.29958807150319</v>
+        <v>187.43573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.97195656016808</v>
+        <v>178.600083442986</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>224.2197084051457</v>
+        <v>174.89328925832024</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.7393700119334</v>
+        <v>169.83856991559423</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>219.89948280967081</v>
+        <v>171.52347636316955</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>229.20524874232368</v>
+        <v>178.78205333932411</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>248.70674708029725</v>
+        <v>193.99338874803428</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>257.99523211056822</v>
+        <v>201.23848647260823</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>269.22781865880285</v>
+        <v>210</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>255.26484953422815</v>
+        <v>199.10876472287305</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>249.46710678510087</v>
+        <v>194.58647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.56991112908406</v>
+        <v>176.72646747328224</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.29694356445452</v>
+        <v>171.83349914952342</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.27543145079483</v>
+        <v>146.85644597066661</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.87902849883054</v>
+        <v>152.78731666613177</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.62175513235374</v>
+        <v>138.546487371225</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>172.80902381899477</v>
+        <v>134.79251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.89313599275408</v>
+        <v>134.07811547225521</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.15693420478294</v>
+        <v>135.84389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.80584911441235</v>
+        <v>154.29025321736898</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>239.74659919528241</v>
+        <v>187.0043968034918</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>239.42690250121726</v>
+        <v>186.75503064925064</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.70815834813925</v>
+        <v>176.83430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.65702127491451</v>
+        <v>168.2143201001316</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3020,99 +3023,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>251.74242559871766</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>239.87538306303324</v>
+        <v>187.10484932122344</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.89683737681932</v>
+        <v>183.22154112776408</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.1079114410731</v>
+        <v>177.92612086395587</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.3708867529885</v>
+        <v>179.69126095189193</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>240.11978439672009</v>
+        <v>187.29548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>260.54992551269237</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>270.28071935392859</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>267.42031855966758</v>
+        <v>208.59013447158128</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>261.34649282248665</v>
+        <v>203.85249847556088</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.35895451618333</v>
+        <v>185.14201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.78727421038093</v>
+        <v>180.01604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.24092818654697</v>
+        <v>153.84961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.20660128448915</v>
+        <v>160.06290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.0799339481801</v>
+        <v>145.14393915080714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.03802495323265</v>
+        <v>141.21120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.07852342098047</v>
+        <v>140.46278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.45012154786781</v>
+        <v>142.3126544497577</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.2251752627177</v>
+        <v>161.6374081324818</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>251.16310391886731</v>
+        <v>195.90936807984858</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>250.82818357270381</v>
+        <v>195.64812734683403</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.50378493614591</v>
+        <v>185.25498250906645</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.92640324038666</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -3216,99 +3219,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.885675054428873</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.806853005730293</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.354257943347211</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.737082858279372</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.942807886635318</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.829071308792731</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.686356864790216</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.570974486720779</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.640744634171703</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.310938050878868</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.75877207477151</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.578086774198482</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.980661291852808</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.930993471504269</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.655145571317192</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.916357631652737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.458002268475692</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.370774856452773</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.586374686169801</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.8386522966107</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.833009447169754</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.802562142973073</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.591253176013264</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.538763930944238</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3317,99 +3320,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.741391301707427</v>
+        <v>16.958471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.716510355443777</v>
+        <v>16.159055168651115</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.28654504617985</v>
+        <v>15.82367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.700228715365402</v>
+        <v>15.366346801887095</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.895667492303552</v>
+        <v>15.518790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.737617743353095</v>
+        <v>16.175519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.502039021550701</v>
+        <v>17.551782791488815</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.342425762384742</v>
+        <v>18.207291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.358707402463118</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.095391148334926</v>
+        <v>18.014602522545655</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.570833471032937</v>
+        <v>17.605443050162076</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.499182435488557</v>
+        <v>15.989537533296964</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.93162822726017</v>
+        <v>15.546840399242594</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.034443797929054</v>
+        <v>13.287011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.722388292751333</v>
+        <v>13.823614365030968</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.0705397500701</v>
+        <v>12.535158381206072</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.635102155051909</v>
+        <v>12.195513334831031</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.552236113630132</v>
+        <v>12.130877114156425</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.757055951861313</v>
+        <v>12.290638338842712</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.896719681780166</v>
+        <v>13.959594338714338</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.691358974811266</v>
+        <v>16.919445425077829</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.662434035824422</v>
+        <v>16.896883725408394</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.5116905172126</v>
+        <v>15.999293943964828</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.511825734397025</v>
+        <v>15.219390866202382</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3418,99 +3421,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.885675054428873</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.806853005730293</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.354257943347211</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.737082858279372</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.942807886635318</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.829071308792731</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.686356864790216</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.570974486720779</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.640744634171703</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.310938050878868</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.75877207477151</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.578086774198482</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.980661291852808</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.930993471504269</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.655145571317192</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.916357631652737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.458002268475692</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.370774856452773</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.586374686169801</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.8386522966107</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.833009447169754</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.802562142973073</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.591253176013264</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.538763930944238</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3519,99 +3522,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.029958807150319</v>
+        <v>18.743573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.897195656016805</v>
+        <v>17.860008344298599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.421970840514572</v>
+        <v>17.489328925832027</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.773937001193342</v>
+        <v>16.983856991559424</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.989948280967084</v>
+        <v>17.152347636316957</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.920524874232367</v>
+        <v>17.87820533393241</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.870674708029728</v>
+        <v>19.39933887480343</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.799523211056819</v>
+        <v>20.123848647260822</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.922781865880285</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.526484953422813</v>
+        <v>19.910876472287303</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.946710678510087</v>
+        <v>19.458647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.656991112908411</v>
+        <v>17.672646747328226</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.02969435644545</v>
+        <v>17.183349914952341</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.827543145079485</v>
+        <v>14.685644597066663</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.587902849883054</v>
+        <v>15.278731666613178</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.762175513235377</v>
+        <v>13.854648737122501</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.280902381899477</v>
+        <v>13.479251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.189313599275408</v>
+        <v>13.407811547225522</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.415693420478291</v>
+        <v>13.584389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.780584911441235</v>
+        <v>15.4290253217369</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.974659919528243</v>
+        <v>18.700439680349181</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.942690250121728</v>
+        <v>18.675503064925067</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.670815834813926</v>
+        <v>17.683430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.565702127491452</v>
+        <v>16.821432010013162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3620,99 +3623,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.174242559871765</v>
+        <v>19.63612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.987538306303325</v>
+        <v>18.710484932122345</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.489683737681936</v>
+        <v>18.32215411277641</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.810791144107309</v>
+        <v>17.792612086395586</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.037088675298854</v>
+        <v>17.969126095189196</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.011978439672006</v>
+        <v>18.729548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.05499255126924</v>
+        <v>20.323116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.028071935392862</v>
+        <v>21.082127154273245</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.204819097588871</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.742031855966754</v>
+        <v>20.859013447158127</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.134649282248663</v>
+        <v>20.385249847556089</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.735895451618337</v>
+        <v>18.514201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.078727421038092</v>
+        <v>18.001604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.724092818654697</v>
+        <v>15.384961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.520660128448917</v>
+        <v>16.006290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.607993394818013</v>
+        <v>14.514393915080717</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.103802495323265</v>
+        <v>14.121120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.007852342098047</v>
+        <v>14.046278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.245012154786785</v>
+        <v>14.231265444975772</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.722517526271773</v>
+        <v>16.163740813248182</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.116310391886731</v>
+        <v>19.590936807984857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.082818357270384</v>
+        <v>19.564812734683404</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.750378493614594</v>
+        <v>18.525498250906647</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.592640324038669</v>
+        <v>17.622452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -3816,99 +3819,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.153340341509065</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.281489268343407</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.640525448825628</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.102080770775324</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.025191414674723</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.538006307358167</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.589265878091894</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.127710556142198</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3917,99 +3920,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.482782603414854</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.482782603414854</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.845673324433605</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.332847472482868</v>
+        <v>34.58</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.482782603414854</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.717414804926236</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.332847472482868</v>
+        <v>34.58</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.358499176384349</v>
+        <v>33.82</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.89697673223656</v>
+        <v>32.68</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.948280140039508</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.973931843940981</v>
+        <v>30.4</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.461105991990252</v>
+        <v>30.780000000000005</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.948280140039508</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.948280140039508</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.409802584187297</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.871325028335079</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4018,99 +4021,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.153340341509065</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.281489268343407</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.640525448825628</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.102080770775324</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.025191414674723</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.538006307358167</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.589265878091894</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.127710556142198</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4119,99 +4122,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.059917614300637</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.059917614300637</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.461007358584524</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.999462995902121</v>
+        <v>38.22</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.059917614300637</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.845563731760571</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.999462995902121</v>
+        <v>38.22</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.922551721266913</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.307184809314087</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.153362260043664</v>
+        <v>34.44</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.614906622726075</v>
+        <v>34.02000000000001</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.153362260043664</v>
+        <v>34.44</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.153362260043664</v>
+        <v>34.44</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.76872917199649</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4220,99 +4223,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.348485119743529</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.348485119743529</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.76867437565997</v>
+        <v>39.6</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.332770757611748</v>
+        <v>40.04</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.348485119743529</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>56.409638195177742</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.332770757611748</v>
+        <v>40.04</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.204577993708199</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.512288847852865</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.255903320045746</v>
+        <v>36.08</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.127710556142198</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.691806938093983</v>
+        <v>35.640000000000008</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.255903320045746</v>
+        <v>36.08</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.255903320045746</v>
+        <v>36.08</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.948192465901087</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.640481611756421</v>
+        <v>38.720000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -4416,99 +4419,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.74242559871766</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.3819261490232</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.54992551269237</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.28071935392859</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.40722715637099</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.22770906612982</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.76626333685317</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.12529951733541</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>259.48433569781764</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.20240805878211</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.92640324038666</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4517,99 +4520,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.15530431878176</v>
+        <v>186.54318174524218</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.11282984157199</v>
+        <v>181.82999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.43337202730109</v>
+        <v>179.74</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.52242923705774</v>
+        <v>193.06961070637698</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.76668338623216</v>
+        <v>200.28020796559579</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.94578142709435</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.58686579855242</v>
+        <v>204.82000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.26632361282333</v>
+        <v>206.91</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.94578142709435</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.2279501700105</v>
+        <v>200.64000000000001</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.15120328438488</v>
+        <v>188.10000000000002</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.83066109865578</v>
+        <v>190.19</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.18957672719768</v>
+        <v>194.37</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.86903454146864</v>
+        <v>196.46</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.18957672719768</v>
+        <v>194.37</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.83066109865578</v>
+        <v>190.19</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.83066109865578</v>
+        <v>190.19</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.51011891292674</v>
+        <v>192.28</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.18957672719768</v>
+        <v>194.37</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.79228765584298</v>
+        <v>183.92000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.63008307836731</v>
+        <v>167.41329952822622</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4618,99 +4621,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.74242559871766</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.3819261490232</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.56144423926432</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.54992551269237</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.28071935392859</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.40722715637099</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.22770906612982</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.76626333685317</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.12529951733541</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.66385378805876</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>259.48433569781764</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.30481760757652</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.20240805878211</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.92640324038666</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4719,99 +4722,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>264.32954687865356</v>
+        <v>206.17930613947823</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.65102245647438</v>
+        <v>200.97000000000003</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>254.68951645122755</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>273.577421788327</v>
+        <v>213.39272762283775</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>283.79475532162502</v>
+        <v>221.36233511986907</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>296.15060052468317</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.22758851418951</v>
+        <v>226.38000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>293.18909451943637</v>
+        <v>228.69000000000003</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>296.15060052468317</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>284.30457650369584</v>
+        <v>221.76000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.5355404722149</v>
+        <v>207.90000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.49704647746171</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42005848795537</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>278.38156449320218</v>
+        <v>217.14000000000001</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42005848795537</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.49704647746171</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.49704647746171</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>272.45855248270851</v>
+        <v>212.52</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42005848795537</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.61252846172124</v>
+        <v>203.28000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.22272340240605</v>
+        <v>185.03575211014481</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4820,99 +4823,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.91666815858946</v>
+        <v>215.99736833659625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>269.92011876392553</v>
+        <v>210.54000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.81758866319075</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>286.60491806396163</v>
+        <v>223.55428608106811</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.30879128932145</v>
+        <v>231.90339869700568</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>310.25301007347764</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>304.04794987200813</v>
+        <v>237.16000000000005</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>307.15047997274286</v>
+        <v>239.58000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>310.25301007347764</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.84288967053857</v>
+        <v>232.32000000000005</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.22770906612988</v>
+        <v>217.80000000000004</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.33023916686466</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.53529936833422</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>291.63782946906895</v>
+        <v>227.48000000000002</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.53529936833422</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.33023916686466</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.33023916686466</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.43276926759938</v>
+        <v>222.64000000000001</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.53529936833422</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>273.02264886466031</v>
+        <v>212.96000000000004</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.51904356442537</v>
+        <v>193.84697840110408</v>
       </c>
     </row>
   </sheetData>
@@ -5016,99 +5019,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.97107548985986</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.76703048556442</v>
+        <v>156.6</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.17721178311191</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.13877038048702</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.15136767339442</v>
+        <v>176.4</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.45903469046988</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.53603363924353</v>
+        <v>172.8</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.69003153679077</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.92069960509261</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.30536557094169</v>
+        <v>165.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.07469750263988</v>
+        <v>158.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.84887537849815</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5117,99 +5120,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>195.67252171536686</v>
+        <v>152.62623960974358</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.72867896128619</v>
+        <v>148.76999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.53639529506452</v>
+        <v>147.06</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.51835119395633</v>
+        <v>157.96604512339934</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.08183186146266</v>
+        <v>163.86562469912383</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.22836662216804</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.84379928972467</v>
+        <v>167.57999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.0360829559464</v>
+        <v>169.29000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.22836662216804</v>
+        <v>171</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.45923195728133</v>
+        <v>164.16</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>197.30552995995126</v>
+        <v>153.9</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.49781362617293</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8823809586163</v>
+        <v>159.03</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.07466462483796</v>
+        <v>160.74</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8823809586163</v>
+        <v>159.03</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.49781362617293</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>199.49781362617293</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>201.6900972923946</v>
+        <v>157.32</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.8823809586163</v>
+        <v>159.03</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.92096262750786</v>
+        <v>150.47999999999999</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.60643160957324</v>
+        <v>136.97451779582144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5218,99 +5221,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>205.97107548985986</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.76703048556442</v>
+        <v>156.6</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.45936346848899</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.17721178311191</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.13877038048702</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.15136767339442</v>
+        <v>176.4</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.45903469046988</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.76670170754531</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.53603363924353</v>
+        <v>172.8</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.69003153679077</v>
+        <v>162</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.92069960509261</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.30536557094169</v>
+        <v>165.6</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.61303258801715</v>
+        <v>167.4</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.07469750263988</v>
+        <v>158.4</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.84887537849815</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5319,99 +5322,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>216.26962926435289</v>
+        <v>168.69215956866398</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.80538200984265</v>
+        <v>164.43</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.38233164191345</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.83607237226752</v>
+        <v>174.59404987323086</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.1957088995114</v>
+        <v>181.11463782534742</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.30503679292258</v>
+        <v>189</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.45893605706416</v>
+        <v>185.22000000000003</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.88198642499339</v>
+        <v>187.11</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.30503679292258</v>
+        <v>189</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.61283532120572</v>
+        <v>181.44000000000003</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.07453311363031</v>
+        <v>170.1</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.99769855386626</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.343684217418</v>
+        <v>175.77</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.76673458534725</v>
+        <v>177.66000000000003</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.343684217418</v>
+        <v>175.77</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.49758348155956</v>
+        <v>171.99</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.49758348155956</v>
+        <v>171.99</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.92063384948878</v>
+        <v>173.88</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.343684217418</v>
+        <v>175.77</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.2284323777719</v>
+        <v>166.32000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.09131914742306</v>
+        <v>151.39288809011845</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5420,99 +5423,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.56818303884589</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.8437335341209</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.30529981533792</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>234.49493296142313</v>
+        <v>182.90805224814662</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.25264741853576</v>
+        <v>189.73914438845921</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.76650444073388</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>251.30493815951689</v>
+        <v>196.02000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.84337187829988</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.68963700316792</v>
+        <v>190.08000000000004</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.45903469046988</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.99746840925292</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.07433584681888</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.61276956560189</v>
+        <v>186.12000000000003</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.07433584681888</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.99746840925292</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.99746840925292</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.53590212803584</v>
+        <v>182.16</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>236.07433584681888</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.38216725290388</v>
+        <v>174.24</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.33376291634798</v>
+        <v>158.60207323726695</v>
       </c>
     </row>
   </sheetData>
@@ -5616,99 +5619,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.85675054428873</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.06853005730292</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.5425794334721</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.37082858279371</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.42807886635316</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.29071308792732</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>236.86356864790213</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.7097448672078</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.40744634171699</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>243.10938050878869</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.58772074771511</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.78086774198482</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.80661291852812</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.30993471504269</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.55145571317195</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.16357631652738</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.58002268475693</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.70774856452769</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>165.86374686169802</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.38652296610698</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.33009447169755</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.02562142973073</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.91253176013262</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.38763930944239</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5717,99 +5720,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.41391301707429</v>
+        <v>169.58471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.16510355443776</v>
+        <v>161.59055168651113</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.8654504617985</v>
+        <v>158.2367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.00228715365401</v>
+        <v>153.66346801887096</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>198.95667492303551</v>
+        <v>155.18790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.37617743353096</v>
+        <v>161.75519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.02039021550704</v>
+        <v>175.51782791488816</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>233.42425762384741</v>
+        <v>182.07291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>243.58707402463116</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.95391148334923</v>
+        <v>180.14602522545653</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.70833471032935</v>
+        <v>176.05443050162074</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>204.99182435488558</v>
+        <v>159.89537533296965</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.31628227260171</v>
+        <v>155.46840399242595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.34443797929055</v>
+        <v>132.87011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.22388292751333</v>
+        <v>138.23614365030969</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.705397500701</v>
+        <v>125.35158381206071</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>156.35102155051905</v>
+        <v>121.95513334831028</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.5223611363013</v>
+        <v>121.30877114156424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>157.57055951861309</v>
+        <v>122.9063833884271</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.96719681780164</v>
+        <v>139.59594338714336</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>216.91358974811266</v>
+        <v>169.19445425077831</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>216.62434035824418</v>
+        <v>168.96883725408392</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.11690517212597</v>
+        <v>159.99293943964827</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.11825734397027</v>
+        <v>152.19390866202383</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5818,99 +5821,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.85675054428873</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.06853005730292</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.5425794334721</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.37082858279371</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.42807886635316</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>218.29071308792732</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>236.86356864790213</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.7097448672078</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.40744634171699</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>243.10938050878869</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.58772074771511</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.78086774198482</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>209.80661291852812</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.30993471504269</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.55145571317195</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.16357631652738</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>164.58002268475693</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.70774856452769</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>165.86374686169802</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.38652296610698</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.33009447169755</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.02562142973073</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.91253176013262</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.38763930944239</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5919,99 +5922,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>240.29958807150319</v>
+        <v>187.43573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.97195656016808</v>
+        <v>178.600083442986</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>224.2197084051457</v>
+        <v>174.89328925832024</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>217.7393700119334</v>
+        <v>169.83856991559423</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>219.89948280967081</v>
+        <v>171.52347636316955</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>229.20524874232368</v>
+        <v>178.78205333932411</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>248.70674708029725</v>
+        <v>193.99338874803428</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>257.99523211056822</v>
+        <v>201.23848647260823</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>269.22781865880285</v>
+        <v>210</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>255.26484953422815</v>
+        <v>199.10876472287305</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>249.46710678510087</v>
+        <v>194.58647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.56991112908406</v>
+        <v>176.72646747328224</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.29694356445452</v>
+        <v>171.83349914952342</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>188.27543145079483</v>
+        <v>146.85644597066661</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.87902849883054</v>
+        <v>152.78731666613177</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.62175513235374</v>
+        <v>138.546487371225</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>172.80902381899477</v>
+        <v>134.79251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.89313599275408</v>
+        <v>134.07811547225521</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.15693420478294</v>
+        <v>135.84389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.80584911441235</v>
+        <v>154.29025321736898</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>239.74659919528241</v>
+        <v>187.0043968034918</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>239.42690250121726</v>
+        <v>186.75503064925064</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>226.70815834813925</v>
+        <v>176.83430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>215.65702127491451</v>
+        <v>168.2143201001316</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6020,99 +6023,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>251.74242559871766</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>239.87538306303324</v>
+        <v>187.10484932122344</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.89683737681932</v>
+        <v>183.22154112776408</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>228.1079114410731</v>
+        <v>177.92612086395587</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.3708867529885</v>
+        <v>179.69126095189193</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>240.11978439672009</v>
+        <v>187.29548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>260.54992551269237</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>270.28071935392859</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>282.04819097588876</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>267.42031855966758</v>
+        <v>208.59013447158128</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>261.34649282248665</v>
+        <v>203.85249847556088</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.35895451618333</v>
+        <v>185.14201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>230.78727421038093</v>
+        <v>180.01604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.24092818654697</v>
+        <v>153.84961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>205.20660128448915</v>
+        <v>160.06290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.0799339481801</v>
+        <v>145.14393915080714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.03802495323265</v>
+        <v>141.21120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.07852342098047</v>
+        <v>140.46278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.45012154786781</v>
+        <v>142.3126544497577</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>207.2251752627177</v>
+        <v>161.6374081324818</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>251.16310391886731</v>
+        <v>195.90936807984858</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>250.82818357270381</v>
+        <v>195.64812734683403</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.50378493614591</v>
+        <v>185.25498250906645</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.92640324038666</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -6216,99 +6219,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.885675054428873</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.806853005730293</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.354257943347211</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.737082858279372</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.942807886635318</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.829071308792731</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.686356864790216</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.570974486720779</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.640744634171703</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.310938050878868</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.75877207477151</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.578086774198482</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.980661291852808</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.930993471504269</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.655145571317192</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.916357631652737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.458002268475692</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.370774856452773</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.586374686169801</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.8386522966107</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.833009447169754</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.802562142973073</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.591253176013264</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.538763930944238</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6317,99 +6320,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.741391301707427</v>
+        <v>16.958471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.716510355443777</v>
+        <v>16.159055168651115</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.28654504617985</v>
+        <v>15.82367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.700228715365402</v>
+        <v>15.366346801887095</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.895667492303552</v>
+        <v>15.518790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.737617743353095</v>
+        <v>16.175519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.502039021550701</v>
+        <v>17.551782791488815</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.342425762384742</v>
+        <v>18.207291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.358707402463118</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.095391148334926</v>
+        <v>18.014602522545655</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.570833471032937</v>
+        <v>17.605443050162076</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.499182435488557</v>
+        <v>15.989537533296964</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.93162822726017</v>
+        <v>15.546840399242594</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.034443797929054</v>
+        <v>13.287011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.722388292751333</v>
+        <v>13.823614365030968</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.0705397500701</v>
+        <v>12.535158381206072</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.635102155051909</v>
+        <v>12.195513334831031</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.552236113630132</v>
+        <v>12.130877114156425</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.757055951861313</v>
+        <v>12.290638338842712</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.896719681780166</v>
+        <v>13.959594338714338</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.691358974811266</v>
+        <v>16.919445425077829</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.662434035824422</v>
+        <v>16.896883725408394</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.5116905172126</v>
+        <v>15.999293943964828</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.511825734397025</v>
+        <v>15.219390866202382</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6418,99 +6421,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.885675054428873</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.806853005730293</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.354257943347211</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.737082858279372</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.942807886635318</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.829071308792731</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.686356864790216</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.570974486720779</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.640744634171703</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.310938050878868</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.75877207477151</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.578086774198482</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.980661291852808</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.930993471504269</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.655145571317192</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.916357631652737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.458002268475692</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.370774856452773</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.586374686169801</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.8386522966107</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.833009447169754</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.802562142973073</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.591253176013264</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.538763930944238</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6519,99 +6522,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.029958807150319</v>
+        <v>18.743573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.897195656016805</v>
+        <v>17.860008344298599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.421970840514572</v>
+        <v>17.489328925832027</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.773937001193342</v>
+        <v>16.983856991559424</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.989948280967084</v>
+        <v>17.152347636316957</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.920524874232367</v>
+        <v>17.87820533393241</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.870674708029728</v>
+        <v>19.39933887480343</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.799523211056819</v>
+        <v>20.123848647260822</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.922781865880285</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.526484953422813</v>
+        <v>19.910876472287303</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.946710678510087</v>
+        <v>19.458647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.656991112908411</v>
+        <v>17.672646747328226</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.02969435644545</v>
+        <v>17.183349914952341</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.827543145079485</v>
+        <v>14.685644597066663</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.587902849883054</v>
+        <v>15.278731666613178</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.762175513235377</v>
+        <v>13.854648737122501</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.280902381899477</v>
+        <v>13.479251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.189313599275408</v>
+        <v>13.407811547225522</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.415693420478291</v>
+        <v>13.584389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.780584911441235</v>
+        <v>15.4290253217369</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.974659919528243</v>
+        <v>18.700439680349181</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.942690250121728</v>
+        <v>18.675503064925067</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.670815834813926</v>
+        <v>17.683430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.565702127491452</v>
+        <v>16.821432010013162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6620,99 +6623,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.174242559871765</v>
+        <v>19.63612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.987538306303325</v>
+        <v>18.710484932122345</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.489683737681936</v>
+        <v>18.32215411277641</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.810791144107309</v>
+        <v>17.792612086395586</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.037088675298854</v>
+        <v>17.969126095189196</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.011978439672006</v>
+        <v>18.729548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.05499255126924</v>
+        <v>20.323116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.028071935392862</v>
+        <v>21.082127154273245</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.204819097588871</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.742031855966754</v>
+        <v>20.859013447158127</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.134649282248663</v>
+        <v>20.385249847556089</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.735895451618337</v>
+        <v>18.514201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.078727421038092</v>
+        <v>18.001604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.724092818654697</v>
+        <v>15.384961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.520660128448917</v>
+        <v>16.006290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.607993394818013</v>
+        <v>14.514393915080717</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.103802495323265</v>
+        <v>14.121120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.007852342098047</v>
+        <v>14.046278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.245012154786785</v>
+        <v>14.231265444975772</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.722517526271773</v>
+        <v>16.163740813248182</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.116310391886731</v>
+        <v>19.590936807984857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.082818357270384</v>
+        <v>19.564812734683404</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.750378493614594</v>
+        <v>18.525498250906647</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.592640324038669</v>
+        <v>17.622452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -6816,99 +6819,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.153340341509065</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.281489268343407</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.640525448825628</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.102080770775324</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.025191414674723</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.538006307358167</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.589265878091894</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.127710556142198</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6917,99 +6920,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.482782603414854</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.482782603414854</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.845673324433605</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.332847472482868</v>
+        <v>34.58</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.482782603414854</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.717414804926236</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.332847472482868</v>
+        <v>34.58</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.358499176384349</v>
+        <v>33.82</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.89697673223656</v>
+        <v>32.68</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.948280140039508</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.973931843940981</v>
+        <v>30.4</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.461105991990252</v>
+        <v>30.780000000000005</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.948280140039508</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.922628436138034</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.435454288088771</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.948280140039508</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.409802584187297</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.871325028335079</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7018,99 +7021,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.153340341509065</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.771350108857746</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.281489268343407</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.666155234192495</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.640525448825628</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.102080770775324</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.025191414674723</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>41.538006307358167</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.563636092725019</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42.05082120004159</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.589265878091894</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.127710556142198</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7119,99 +7122,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.059917614300637</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.059917614300637</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.461007358584524</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.999462995902121</v>
+        <v>38.22</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.059917614300637</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.845563731760571</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.999462995902121</v>
+        <v>38.22</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.922551721266913</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.307184809314087</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.153362260043664</v>
+        <v>34.44</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.076450985408464</v>
+        <v>33.6</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>43.614906622726075</v>
+        <v>34.02000000000001</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.153362260043664</v>
+        <v>34.44</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.230273534678886</v>
+        <v>35.28</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.691817897361275</v>
+        <v>34.86</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.153362260043664</v>
+        <v>34.44</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.76872917199649</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7220,99 +7223,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.348485119743529</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.348485119743529</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.76867437565997</v>
+        <v>39.6</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.332770757611748</v>
+        <v>40.04</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.348485119743529</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>56.409638195177742</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.332770757611748</v>
+        <v>40.04</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.204577993708199</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.512288847852865</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.255903320045746</v>
+        <v>36.08</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.127710556142198</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.691806938093983</v>
+        <v>35.640000000000008</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.255903320045746</v>
+        <v>36.08</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.384096083949316</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.819999701997524</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.255903320045746</v>
+        <v>36.08</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.948192465901087</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.640481611756421</v>
+        <v>38.720000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1/Market Data/cs1_market_data_2040.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8D77F-E364-4096-A686-3948B380ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCB45E-4952-4A60-A40C-7D068D6981A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -158,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1205,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="4">
         <v>0.2</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="4">
         <v>0.95</v>
@@ -1421,99 +1421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>185.77441823704874</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>181.08065999525132</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>192.27395111773077</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>199.45483276904952</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>203.97591585671987</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>206.05730275321702</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>199.81314206372559</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>187.32482068474275</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>189.40620758123987</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>195.65036827073129</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>189.40620758123987</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>189.40620758123987</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>191.48759447773699</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>183.16204689174847</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>166.72337221885223</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1522,99 +1522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.54318174524218</v>
+        <v>196.09521925021809</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.82999999999998</v>
+        <v>191.14069666165412</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.06961070637698</v>
+        <v>202.95583729093801</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.28020796559579</v>
+        <v>210.53565681177449</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>219.70195018580938</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.82000000000002</v>
+        <v>215.30791118209319</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.91</v>
+        <v>217.50493068395127</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>219.70195018580938</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.64000000000001</v>
+        <v>210.91387217837701</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.10000000000002</v>
+        <v>197.73175516722844</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>199.92877466908652</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>204.32281367280271</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.46</v>
+        <v>206.51983317466082</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>204.32281367280271</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>199.92877466908652</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>199.92877466908652</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.28</v>
+        <v>202.1257941709446</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>204.32281367280271</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.92000000000002</v>
+        <v>193.33771616351225</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.41329952822622</v>
+        <v>175.98578178656621</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1623,99 +1623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>206.41602026338748</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>201.200733328057</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>213.63772346414527</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>221.61648085449949</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>231.26521072190462</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>226.63990650746652</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>228.95255861468556</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>231.26521072190462</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>222.01460229302842</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>210.4513417569332</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>215.07664597137131</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>217.38929807859034</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>215.07664597137131</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>210.4513417569332</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>210.4513417569332</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>212.76399386415224</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>215.07664597137131</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>203.51338543527606</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>185.24819135428024</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1724,99 +1724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.17930613947823</v>
+        <v>216.73682127655687</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.97000000000003</v>
+        <v>211.26076999445988</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.39272762283775</v>
+        <v>224.31960963735256</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.36233511986907</v>
+        <v>232.69730489722446</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>242.82847125799987</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.38000000000002</v>
+        <v>237.97190183283985</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.69000000000003</v>
+        <v>240.40018654541984</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>242.82847125799987</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.76000000000002</v>
+        <v>233.11533240767986</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.90000000000003</v>
+        <v>218.54562413219986</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>220.97390884477988</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>225.83047826993987</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.14000000000001</v>
+        <v>228.25876298251984</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>225.83047826993987</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>220.97390884477988</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>220.97390884477988</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.52</v>
+        <v>223.40219355735985</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>225.83047826993987</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.28000000000003</v>
+        <v>213.68905470703987</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.03575211014481</v>
+        <v>194.5106009219943</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1825,99 +1825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.99736833659625</v>
+        <v>227.05762228972625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.54000000000002</v>
+        <v>221.32080666086273</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.55428608106811</v>
+        <v>235.00149581055982</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.90339869700568</v>
+        <v>243.77812893994943</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>254.39173179409511</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.16000000000005</v>
+        <v>249.3038971582132</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.58000000000004</v>
+        <v>251.84781447615416</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>254.39173179409511</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.32000000000005</v>
+        <v>244.2160625223313</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.80000000000004</v>
+        <v>228.95255861468559</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>231.49647593262654</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>236.58431056850844</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.48000000000002</v>
+        <v>239.12822788644937</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>236.58431056850844</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>231.49647593262654</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>231.49647593262654</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.64000000000001</v>
+        <v>234.04039325056746</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>236.58431056850844</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.96000000000004</v>
+        <v>223.86472397880368</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.84697840110408</v>
+        <v>203.7730104897083</v>
       </c>
     </row>
   </sheetData>
@@ -2019,99 +2019,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>151.99725128485804</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>148.15690363247833</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>157.31505091450694</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>163.19031772013142</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>170.2952915315843</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>166.88938570095263</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>168.59233861626848</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>170.2952915315843</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>163.48347987032093</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>153.26576237842588</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>154.96871529374172</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>158.37462112437339</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>160.07757403968927</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>158.37462112437339</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>154.96871529374172</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>154.96871529374172</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>156.67166820905754</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>158.37462112437339</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>149.85985654779418</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>136.41003181542453</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2120,99 +2120,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>152.62623960974358</v>
+        <v>160.44154302290568</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>148.76999999999998</v>
+        <v>156.38784272317156</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.96604512339934</v>
+        <v>166.0547759653129</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.86562469912383</v>
+        <v>172.25644648236093</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>179.75614106111675</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.57999999999998</v>
+        <v>176.16101823989439</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.29000000000002</v>
+        <v>177.95857965050561</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>179.75614106111675</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.16</v>
+        <v>172.56589541867208</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>153.9</v>
+        <v>161.78052695500509</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>163.57808836561625</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>167.17321118683859</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.74</v>
+        <v>168.97077259744975</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>167.17321118683859</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>163.57808836561625</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>163.57808836561625</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.32</v>
+        <v>165.37564977622739</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>167.17321118683859</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>150.47999999999999</v>
+        <v>158.18540413378273</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>136.97451779582144</v>
+        <v>143.98836691628145</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2221,99 +2221,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>168.88583476095337</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>164.61878181386481</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>174.79450101611886</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>181.32257524459047</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>189.2169905906492</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>185.43265077883623</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>187.32482068474275</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>189.2169905906492</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>181.64831096702326</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>170.2952915315843</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>175.97180124930378</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>177.86397115521027</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>175.97180124930378</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>174.07963134339727</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>175.97180124930378</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>166.5109517197713</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>151.56670201713837</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2322,99 +2322,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.69215956866398</v>
+        <v>177.33012649900104</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.43</v>
+        <v>172.84972090455807</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.59404987323086</v>
+        <v>183.53422606692479</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.11463782534742</v>
+        <v>190.38870400682001</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>198.67784012018168</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.22000000000003</v>
+        <v>194.70428331777808</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.11</v>
+        <v>196.69106171897988</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>198.67784012018168</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.44000000000003</v>
+        <v>190.73072651537444</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.1</v>
+        <v>178.81005610816351</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>184.77039131176898</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.66000000000003</v>
+        <v>186.75716971297081</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>184.77039131176898</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>180.79683450936534</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>180.79683450936534</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>173.88</v>
+        <v>182.78361291056714</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>184.77039131176898</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.32000000000002</v>
+        <v>174.8364993057599</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>151.39288809011845</v>
+        <v>159.14503711799529</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2423,99 +2423,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.72511954812418</v>
+        <v>185.77441823704874</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.26000000000002</v>
+        <v>181.08065999525132</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.90805224814662</v>
+        <v>192.27395111773075</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.73914438845921</v>
+        <v>199.45483276904955</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.04000000000002</v>
+        <v>203.97591585671987</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.02000000000004</v>
+        <v>206.05730275321704</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.08000000000004</v>
+        <v>199.81314206372562</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>187.32482068474275</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>189.4062075812399</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.12000000000003</v>
+        <v>195.65036827073132</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>189.4062075812399</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>189.4062075812399</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.16</v>
+        <v>191.48759447773699</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.24</v>
+        <v>183.16204689174845</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.60207323726695</v>
+        <v>166.72337221885221</v>
       </c>
     </row>
   </sheetData>
@@ -2619,99 +2619,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>168.88583476095337</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>160.92462051581262</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>157.58467556171081</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>153.03020516975388</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>154.54836196707285</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>161.08858144992303</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>174.79450101611886</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>181.32257524459047</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>189.2169905906492</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>179.40362505277932</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>175.32889220877516</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>159.23643015719392</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>154.82770281777954</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>132.32254645432289</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>137.6664583808857</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>124.83499712994562</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>121.45254378551894</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>120.80884530345568</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>122.39987362704598</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>139.02065424409423</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>168.49718662083973</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>168.27249941483652</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>159.33359219222231</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>151.56670201713837</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2720,99 +2720,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.58471067749286</v>
+        <v>178.26838113656186</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.59055168651113</v>
+        <v>169.86487721113551</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.2367855194326</v>
+        <v>166.33937975958364</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.66346801887096</v>
+        <v>161.53188323474018</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.18790718572484</v>
+        <v>163.13438207635465</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.75519111653134</v>
+        <v>170.03794708602987</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.51782791488816</v>
+        <v>184.50530662812545</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.07291633235982</v>
+        <v>191.39605164706774</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190</v>
+        <v>199.72904562346307</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.14602522545653</v>
+        <v>189.37049311126702</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.05443050162074</v>
+        <v>185.06938622037376</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.89537533296965</v>
+        <v>168.08289849926024</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.46840399242595</v>
+        <v>163.42924186321173</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>132.87011778298407</v>
+        <v>139.67379903511861</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.23614365030969</v>
+        <v>145.31459495760157</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>125.35158381206071</v>
+        <v>131.77027474827594</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.95513334831028</v>
+        <v>128.19990732915886</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.30877114156424</v>
+        <v>127.52044782031433</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>122.9063833884271</v>
+        <v>129.19986660632631</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.59594338714336</v>
+        <v>146.74402392432171</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.19445425077831</v>
+        <v>177.85814143310859</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.96883725408392</v>
+        <v>177.62097160454965</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.99293943964827</v>
+        <v>168.18545842512353</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.19390866202383</v>
+        <v>159.98707435142381</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2821,99 +2821,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>187.6509275121704</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>178.80513390645845</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>175.09408395745646</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>170.0335612997265</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>171.72040218563649</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>178.98731272213669</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>194.21611224013205</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>201.46952804954498</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>210.2411006562769</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>199.33736116975479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>194.80988023197239</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>176.92936684132656</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>172.03078090864392</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>147.02505161591432</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>152.96273153431744</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>138.70555236660624</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>134.94727087279884</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>134.23205033717298</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>135.99985958560663</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>154.46739360454916</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>187.21909624537747</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>186.96944379426279</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>177.03732465802477</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>168.40744668570929</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2922,99 +2922,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.43573285407109</v>
+        <v>197.03347388777894</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.600083442986</v>
+        <v>187.74539060178137</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.89328925832024</v>
+        <v>183.84878815532929</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.83856991559423</v>
+        <v>178.53523936471285</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.52347636316955</v>
+        <v>180.30642229491832</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.78205333932411</v>
+        <v>187.93667835824354</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>193.99338874803428</v>
+        <v>203.92691785213864</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.23848647260823</v>
+        <v>211.54300445202222</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210</v>
+        <v>220.75315568909076</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.10876472287305</v>
+        <v>209.30422922824255</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.58647581758083</v>
+        <v>204.55037424357101</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.72646747328224</v>
+        <v>185.7758351833929</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.83349914952342</v>
+        <v>180.63231995407611</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.85644597066661</v>
+        <v>154.37630419671004</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.78731666613177</v>
+        <v>160.61086811103331</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.546487371225</v>
+        <v>145.64082998493654</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.79251580602718</v>
+        <v>141.69463441643879</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.07811547225521</v>
+        <v>140.94365285403163</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>135.84389742931418</v>
+        <v>142.799852564887</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>154.29025321736898</v>
+        <v>162.19076328477661</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.0043968034918</v>
+        <v>196.58005105764633</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.75503064925064</v>
+        <v>196.31791598397592</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.83430148592706</v>
+        <v>185.88919089092605</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.2143201001316</v>
+        <v>176.82781901999476</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3023,99 +3023,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>206.41602026338748</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.10484932122344</v>
+        <v>196.68564729710431</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.22154112776408</v>
+        <v>192.60349235320214</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.92612086395587</v>
+        <v>187.03691742969917</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.69126095189193</v>
+        <v>188.89244240420015</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.29548445072052</v>
+        <v>196.88604399435039</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>213.63772346414527</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>221.61648085449949</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>231.26521072190462</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>208.59013447158128</v>
+        <v>219.27109728673028</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.85249847556088</v>
+        <v>214.29086825516964</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.14201354343857</v>
+        <v>194.62230352545924</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.01604672807215</v>
+        <v>189.23385899950833</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.84961006450789</v>
+        <v>161.72755677750578</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.06290317404282</v>
+        <v>168.25900468774918</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.14393915080714</v>
+        <v>152.57610760326688</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.21120703488563</v>
+        <v>148.44199796007874</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>140.46278763760071</v>
+        <v>147.6552553708903</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>142.3126544497577</v>
+        <v>149.59984554416732</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.6374081324818</v>
+        <v>169.91413296500409</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.90936807984858</v>
+        <v>205.94100586991522</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.64812734683403</v>
+        <v>205.66638817368909</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.25498250906645</v>
+        <v>194.74105712382729</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>185.24819135428024</v>
       </c>
     </row>
   </sheetData>
@@ -3219,99 +3219,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>16.888583476095338</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>16.092462051581258</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>15.758467556171082</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>15.303020516975387</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>15.454836196707287</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>16.108858144992301</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>17.479450101611885</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>18.13225752445905</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>18.92169905906492</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>17.940362505277932</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>17.532889220877518</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>15.923643015719392</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>15.482770281777952</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>13.232254645432292</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>13.76664583808857</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>12.483499712994563</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>12.145254378551895</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>12.080884530345569</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>12.2399873627046</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>13.902065424409425</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>16.849718662083973</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>16.82724994148365</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>15.933359219222233</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>15.156670201713837</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3320,99 +3320,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.958471067749286</v>
+        <v>17.826838113656187</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.159055168651115</v>
+        <v>16.986487721113551</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.82367855194326</v>
+        <v>16.633937975958364</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.366346801887095</v>
+        <v>16.153188323474019</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.518790718572484</v>
+        <v>16.313438207635468</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175519111653134</v>
+        <v>17.003794708602985</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.551782791488815</v>
+        <v>18.450530662812543</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.207291633235982</v>
+        <v>19.139605164706772</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19</v>
+        <v>19.972904562346304</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.014602522545655</v>
+        <v>18.937049311126703</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.605443050162076</v>
+        <v>18.506938622037378</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.989537533296964</v>
+        <v>16.808289849926023</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.546840399242594</v>
+        <v>16.342924186321174</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.287011778298407</v>
+        <v>13.96737990351186</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.823614365030968</v>
+        <v>14.531459495760156</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.535158381206072</v>
+        <v>13.177027474827595</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.195513334831031</v>
+        <v>12.819990732915889</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.130877114156425</v>
+        <v>12.752044782031433</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.290638338842712</v>
+        <v>12.919986660632633</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.959594338714338</v>
+        <v>14.674402392432171</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.919445425077829</v>
+        <v>17.785814143310859</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.896883725408394</v>
+        <v>17.762097160454967</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.999293943964828</v>
+        <v>16.818545842512354</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.219390866202382</v>
+        <v>15.99870743514238</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3421,99 +3421,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>18.76509275121704</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>17.880513390645845</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>17.509408395745648</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>17.003356129972651</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>17.172040218563652</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>17.89873127221367</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>19.421611224013205</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>20.146952804954495</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>21.024110065627688</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>19.933736116975478</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>19.480988023197241</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>17.692936684132658</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>17.203078090864391</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>14.702505161591434</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>15.296273153431743</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>13.870555236660625</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>13.494727087279884</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>13.423205033717299</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>13.599985958560666</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>15.446739360454917</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>18.721909624537744</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>18.696944379426281</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>17.703732465802478</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>16.840744668570927</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3522,99 +3522,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.743573285407109</v>
+        <v>19.703347388777892</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.860008344298599</v>
+        <v>18.774539060178135</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.489328925832027</v>
+        <v>18.384878815532932</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.983856991559424</v>
+        <v>17.853523936471287</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.152347636316957</v>
+        <v>18.030642229491832</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.87820533393241</v>
+        <v>18.793667835824351</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.39933887480343</v>
+        <v>20.392691785213866</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.123848647260822</v>
+        <v>21.154300445202221</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21</v>
+        <v>22.075315568909076</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.910876472287303</v>
+        <v>20.930422922824253</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.458647581758083</v>
+        <v>20.455037424357101</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.672646747328226</v>
+        <v>18.577583518339292</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.183349914952341</v>
+        <v>18.063231995407612</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.685644597066663</v>
+        <v>15.437630419671006</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.278731666613178</v>
+        <v>16.061086811103333</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.854648737122501</v>
+        <v>14.564082998493657</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.479251580602718</v>
+        <v>14.169463441643877</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.407811547225522</v>
+        <v>14.094365285403164</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.584389742931418</v>
+        <v>14.279985256488699</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.4290253217369</v>
+        <v>16.219076328477662</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.700439680349181</v>
+        <v>19.658005105764634</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.675503064925067</v>
+        <v>19.631791598397594</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.683430148592706</v>
+        <v>18.588919089092602</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.821432010013162</v>
+        <v>17.682781901999476</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3623,99 +3623,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.63612439423602</v>
+        <v>20.641602026338749</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.710484932122345</v>
+        <v>19.668564729710432</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.32215411277641</v>
+        <v>19.260349235320216</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.792612086395586</v>
+        <v>18.703691742969916</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.969126095189196</v>
+        <v>18.88924424042002</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.729548445072052</v>
+        <v>19.688604399435039</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.323116916460737</v>
+        <v>21.363772346414528</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.082127154273245</v>
+        <v>22.161648085449947</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22</v>
+        <v>23.12652107219046</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.859013447158127</v>
+        <v>21.927109728673027</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.385249847556089</v>
+        <v>21.429086825516965</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.514201354343857</v>
+        <v>19.462230352545927</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.001604672807215</v>
+        <v>18.92338589995083</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.384961006450789</v>
+        <v>16.172755677750576</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.006290317404282</v>
+        <v>16.825900468774922</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.514393915080717</v>
+        <v>15.25761076032669</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.121120703488563</v>
+        <v>14.844199796007873</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.046278763760071</v>
+        <v>14.765525537089029</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.231265444975772</v>
+        <v>14.959984554416733</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.163740813248182</v>
+        <v>16.991413296500411</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.590936807984857</v>
+        <v>20.594100586991523</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.564812734683404</v>
+        <v>20.566638817368908</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.525498250906647</v>
+        <v>19.47410571238273</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.622452581918552</v>
+        <v>18.524819135428025</v>
       </c>
     </row>
   </sheetData>
@@ -3819,99 +3819,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>33.777166952190676</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>33.777166952190676</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>34.059058306316857</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>34.437492287498152</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>33.777166952190676</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>37.843398118129841</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>34.437492287498152</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>33.680624325135561</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>32.545322381591667</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.031586456866471</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>30.274718494503876</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>30.653152475685179</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.031586456866471</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.031586456866471</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>32.166888400410365</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>33.302190343954265</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3920,99 +3920,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>35.653676227312374</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>35.653676227312374</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.199999999999996</v>
+        <v>35.951228212223349</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>36.350686303470276</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>35.653676227312374</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38</v>
+        <v>39.945809124692609</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>36.350686303470276</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.82</v>
+        <v>35.551770120976421</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.68</v>
+        <v>34.353395847235646</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>32.755563482247936</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.4</v>
+        <v>31.956647299754088</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.780000000000005</v>
+        <v>32.356105391001023</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>32.755563482247936</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>32.755563482247936</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.299999999999997</v>
+        <v>33.953937755988719</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.44</v>
+        <v>35.152312029729494</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4021,99 +4021,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>37.53018550243408</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>37.53018550243408</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>37.843398118129841</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>38.263880319442393</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>37.53018550243408</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>42.048220131255377</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>38.263880319442393</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>37.422915916817288</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>36.161469312879625</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>34.479540507629409</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>33.638576105004304</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>34.059058306316864</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>34.479540507629409</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>34.479540507629409</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>35.740987111567073</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.002433715504736</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4122,99 +4122,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>39.406694777555785</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>39.406694777555785</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.800000000000004</v>
+        <v>39.73556802403634</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>40.177074335414517</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>39.406694777555785</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42</v>
+        <v>44.150631137818152</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>40.177074335414517</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.380000000000003</v>
+        <v>39.294061712658156</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.119999999999997</v>
+        <v>37.969542778523603</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>36.203517533010881</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.02000000000001</v>
+        <v>35.762011221632712</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>36.203517533010881</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>36.203517533010881</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.700000000000003</v>
+        <v>37.528036467145434</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4223,99 +4223,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>41.283204052677497</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>41.283204052677497</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.6</v>
+        <v>41.627737929942825</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>42.090268351386634</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>41.283204052677497</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44</v>
+        <v>46.25304214438092</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>42.090268351386634</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.160000000000004</v>
+        <v>41.165207508499023</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.840000000000003</v>
+        <v>39.777616244167596</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>37.927494558392354</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.002433715504736</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.640000000000008</v>
+        <v>37.464964136948552</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>37.927494558392354</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>37.927494558392354</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.400000000000006</v>
+        <v>39.315085822723788</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.720000000000006</v>
+        <v>40.702677087055214</v>
       </c>
     </row>
   </sheetData>
@@ -4419,99 +4419,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>185.77441823704874</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>181.08065999525132</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>192.27395111773077</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>199.45483276904952</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>203.97591585671987</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>206.05730275321702</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>199.81314206372559</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>187.32482068474275</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>189.40620758123987</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>195.65036827073129</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>189.40620758123987</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>189.40620758123987</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>191.48759447773699</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>183.16204689174847</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>166.72337221885223</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4520,99 +4520,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.54318174524218</v>
+        <v>196.09521925021809</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.82999999999998</v>
+        <v>191.14069666165412</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>188.94367715979607</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.06961070637698</v>
+        <v>202.95583729093801</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.28020796559579</v>
+        <v>210.53565681177449</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>219.70195018580938</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.82000000000002</v>
+        <v>215.30791118209319</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.91</v>
+        <v>217.50493068395127</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>219.70195018580938</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.64000000000001</v>
+        <v>210.91387217837701</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.10000000000002</v>
+        <v>197.73175516722844</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>199.92877466908652</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>204.32281367280271</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.46</v>
+        <v>206.51983317466082</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>204.32281367280271</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>199.92877466908652</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>199.92877466908652</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.28</v>
+        <v>202.1257941709446</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>204.32281367280271</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.92000000000002</v>
+        <v>193.33771616351225</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.41329952822622</v>
+        <v>175.98578178656621</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4621,99 +4621,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>206.41602026338748</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>201.200733328057</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>198.88808122083796</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>213.63772346414527</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>221.61648085449949</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>231.26521072190462</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>226.63990650746652</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>228.95255861468556</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>231.26521072190462</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>222.01460229302842</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>210.4513417569332</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>215.07664597137131</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>217.38929807859034</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>215.07664597137131</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>210.4513417569332</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>210.4513417569332</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>212.76399386415224</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>215.07664597137131</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>203.51338543527606</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>185.24819135428024</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4722,99 +4722,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.17930613947823</v>
+        <v>216.73682127655687</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.97000000000003</v>
+        <v>211.26076999445988</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>208.83248528187988</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.39272762283775</v>
+        <v>224.31960963735256</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.36233511986907</v>
+        <v>232.69730489722446</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>242.82847125799987</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.38000000000002</v>
+        <v>237.97190183283985</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.69000000000003</v>
+        <v>240.40018654541984</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>242.82847125799987</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.76000000000002</v>
+        <v>233.11533240767986</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.90000000000003</v>
+        <v>218.54562413219986</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>220.97390884477988</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>225.83047826993987</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.14000000000001</v>
+        <v>228.25876298251984</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>225.83047826993987</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>220.97390884477988</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>220.97390884477988</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.52</v>
+        <v>223.40219355735985</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>225.83047826993987</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.28000000000003</v>
+        <v>213.68905470703987</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.03575211014481</v>
+        <v>194.5106009219943</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4823,99 +4823,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.99736833659625</v>
+        <v>227.05762228972625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.54000000000002</v>
+        <v>221.32080666086273</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>218.77688934292178</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.55428608106811</v>
+        <v>235.00149581055982</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.90339869700568</v>
+        <v>243.77812893994943</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>254.39173179409511</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.16000000000005</v>
+        <v>249.3038971582132</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.58000000000004</v>
+        <v>251.84781447615416</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>254.39173179409511</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.32000000000005</v>
+        <v>244.2160625223313</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.80000000000004</v>
+        <v>228.95255861468559</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>231.49647593262654</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>236.58431056850844</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.48000000000002</v>
+        <v>239.12822788644937</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>236.58431056850844</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>231.49647593262654</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>231.49647593262654</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.64000000000001</v>
+        <v>234.04039325056746</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>236.58431056850844</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.96000000000004</v>
+        <v>223.86472397880368</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.84697840110408</v>
+        <v>203.7730104897083</v>
       </c>
     </row>
   </sheetData>
@@ -5019,99 +5019,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>151.99725128485804</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>148.15690363247833</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>146.45395071716251</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>157.31505091450694</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>163.19031772013142</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>170.2952915315843</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>166.88938570095263</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>168.59233861626848</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>170.2952915315843</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>163.48347987032093</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>153.26576237842588</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>154.96871529374172</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>158.37462112437339</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>160.07757403968927</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>158.37462112437339</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>154.96871529374172</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>154.96871529374172</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>156.67166820905754</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>158.37462112437339</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>149.85985654779418</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>136.41003181542453</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5120,99 +5120,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>152.62623960974358</v>
+        <v>160.44154302290568</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>148.76999999999998</v>
+        <v>156.38784272317156</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>154.59028131256042</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.96604512339934</v>
+        <v>166.0547759653129</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.86562469912383</v>
+        <v>172.25644648236093</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>179.75614106111675</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.57999999999998</v>
+        <v>176.16101823989439</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.29000000000002</v>
+        <v>177.95857965050561</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>179.75614106111675</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.16</v>
+        <v>172.56589541867208</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>153.9</v>
+        <v>161.78052695500509</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>163.57808836561625</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>167.17321118683859</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.74</v>
+        <v>168.97077259744975</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>167.17321118683859</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>163.57808836561625</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>163.57808836561625</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.32</v>
+        <v>165.37564977622739</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>167.17321118683859</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>150.47999999999999</v>
+        <v>158.18540413378273</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>136.97451779582144</v>
+        <v>143.98836691628145</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5221,99 +5221,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>168.88583476095337</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>164.61878181386481</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>162.72661190795833</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>174.79450101611886</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>181.32257524459047</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>189.2169905906492</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>185.43265077883623</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>187.32482068474275</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>189.2169905906492</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>181.64831096702326</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>170.2952915315843</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>175.97180124930378</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>177.86397115521027</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>175.97180124930378</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>174.07963134339727</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>175.97180124930378</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>166.5109517197713</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>151.56670201713837</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5322,99 +5322,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.69215956866398</v>
+        <v>177.33012649900104</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.43</v>
+        <v>172.84972090455807</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>170.86294250335627</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.59404987323086</v>
+        <v>183.53422606692479</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.11463782534742</v>
+        <v>190.38870400682001</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>198.67784012018168</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.22000000000003</v>
+        <v>194.70428331777808</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.11</v>
+        <v>196.69106171897988</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>198.67784012018168</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.44000000000003</v>
+        <v>190.73072651537444</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.1</v>
+        <v>178.81005610816351</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>172.18746143749078</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>184.77039131176898</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.66000000000003</v>
+        <v>186.75716971297081</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>184.77039131176898</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>180.79683450936534</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>180.79683450936534</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>173.88</v>
+        <v>182.78361291056714</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>184.77039131176898</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.32000000000002</v>
+        <v>174.8364993057599</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>151.39288809011845</v>
+        <v>159.14503711799529</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5423,99 +5423,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.72511954812418</v>
+        <v>185.77441823704874</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.26000000000002</v>
+        <v>181.08065999525132</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>178.99927309875417</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.90805224814662</v>
+        <v>192.27395111773075</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.73914438845921</v>
+        <v>199.45483276904955</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.04000000000002</v>
+        <v>203.97591585671987</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.02000000000004</v>
+        <v>206.05730275321704</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>208.13868964971417</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.08000000000004</v>
+        <v>199.81314206372562</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>187.32482068474275</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>189.4062075812399</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.12000000000003</v>
+        <v>195.65036827073132</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>189.4062075812399</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>189.4062075812399</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.16</v>
+        <v>191.48759447773699</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>193.56898137423417</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.24</v>
+        <v>183.16204689174845</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.60207323726695</v>
+        <v>166.72337221885221</v>
       </c>
     </row>
   </sheetData>
@@ -5619,99 +5619,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>168.88583476095337</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>160.92462051581262</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>157.58467556171081</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>153.03020516975388</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>154.54836196707285</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>161.08858144992303</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>174.79450101611886</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>181.32257524459047</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>189.2169905906492</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>179.40362505277932</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>175.32889220877516</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>159.23643015719392</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>154.82770281777954</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>132.32254645432289</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>137.6664583808857</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>124.83499712994562</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>121.45254378551894</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>120.80884530345568</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>122.39987362704598</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>139.02065424409423</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>168.49718662083973</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>168.27249941483652</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>159.33359219222231</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>151.56670201713837</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5720,99 +5720,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.58471067749286</v>
+        <v>178.26838113656186</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.59055168651113</v>
+        <v>169.86487721113551</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.2367855194326</v>
+        <v>166.33937975958364</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.66346801887096</v>
+        <v>161.53188323474018</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.18790718572484</v>
+        <v>163.13438207635465</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.75519111653134</v>
+        <v>170.03794708602987</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.51782791488816</v>
+        <v>184.50530662812545</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.07291633235982</v>
+        <v>191.39605164706774</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190</v>
+        <v>199.72904562346307</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.14602522545653</v>
+        <v>189.37049311126702</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.05443050162074</v>
+        <v>185.06938622037376</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.89537533296965</v>
+        <v>168.08289849926024</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.46840399242595</v>
+        <v>163.42924186321173</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>132.87011778298407</v>
+        <v>139.67379903511861</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.23614365030969</v>
+        <v>145.31459495760157</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>125.35158381206071</v>
+        <v>131.77027474827594</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.95513334831028</v>
+        <v>128.19990732915886</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.30877114156424</v>
+        <v>127.52044782031433</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>122.9063833884271</v>
+        <v>129.19986660632631</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.59594338714336</v>
+        <v>146.74402392432171</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.19445425077831</v>
+        <v>177.85814143310859</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.96883725408392</v>
+        <v>177.62097160454965</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.99293943964827</v>
+        <v>168.18545842512353</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.19390866202383</v>
+        <v>159.98707435142381</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5821,99 +5821,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>187.6509275121704</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>178.80513390645845</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>175.09408395745646</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>170.0335612997265</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>171.72040218563649</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>178.98731272213669</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>194.21611224013205</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>201.46952804954498</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>210.2411006562769</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>199.33736116975479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>194.80988023197239</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>176.92936684132656</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>172.03078090864392</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>147.02505161591432</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>152.96273153431744</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>138.70555236660624</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>134.94727087279884</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>134.23205033717298</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>135.99985958560663</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>154.46739360454916</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>187.21909624537747</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>186.96944379426279</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>177.03732465802477</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>168.40744668570929</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5922,99 +5922,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.43573285407109</v>
+        <v>197.03347388777894</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.600083442986</v>
+        <v>187.74539060178137</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.89328925832024</v>
+        <v>183.84878815532929</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.83856991559423</v>
+        <v>178.53523936471285</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.52347636316955</v>
+        <v>180.30642229491832</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.78205333932411</v>
+        <v>187.93667835824354</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>193.99338874803428</v>
+        <v>203.92691785213864</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.23848647260823</v>
+        <v>211.54300445202222</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210</v>
+        <v>220.75315568909076</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.10876472287305</v>
+        <v>209.30422922824255</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.58647581758083</v>
+        <v>204.55037424357101</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.72646747328224</v>
+        <v>185.7758351833929</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.83349914952342</v>
+        <v>180.63231995407611</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.85644597066661</v>
+        <v>154.37630419671004</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.78731666613177</v>
+        <v>160.61086811103331</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.546487371225</v>
+        <v>145.64082998493654</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.79251580602718</v>
+        <v>141.69463441643879</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.07811547225521</v>
+        <v>140.94365285403163</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>135.84389742931418</v>
+        <v>142.799852564887</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>154.29025321736898</v>
+        <v>162.19076328477661</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.0043968034918</v>
+        <v>196.58005105764633</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.75503064925064</v>
+        <v>196.31791598397592</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.83430148592706</v>
+        <v>185.88919089092605</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.2143201001316</v>
+        <v>176.82781901999476</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6023,99 +6023,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>206.41602026338748</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.10484932122344</v>
+        <v>196.68564729710431</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.22154112776408</v>
+        <v>192.60349235320214</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.92612086395587</v>
+        <v>187.03691742969917</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.69126095189193</v>
+        <v>188.89244240420015</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.29548445072052</v>
+        <v>196.88604399435039</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>213.63772346414527</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>221.61648085449949</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>231.26521072190462</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>208.59013447158128</v>
+        <v>219.27109728673028</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.85249847556088</v>
+        <v>214.29086825516964</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.14201354343857</v>
+        <v>194.62230352545924</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.01604672807215</v>
+        <v>189.23385899950833</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.84961006450789</v>
+        <v>161.72755677750578</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.06290317404282</v>
+        <v>168.25900468774918</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.14393915080714</v>
+        <v>152.57610760326688</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.21120703488563</v>
+        <v>148.44199796007874</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>140.46278763760071</v>
+        <v>147.6552553708903</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>142.3126544497577</v>
+        <v>149.59984554416732</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.6374081324818</v>
+        <v>169.91413296500409</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.90936807984858</v>
+        <v>205.94100586991522</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.64812734683403</v>
+        <v>205.66638817368909</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.25498250906645</v>
+        <v>194.74105712382729</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>185.24819135428024</v>
       </c>
     </row>
   </sheetData>
@@ -6219,99 +6219,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>16.888583476095338</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>16.092462051581258</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>15.758467556171082</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>15.303020516975387</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>15.454836196707287</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>16.108858144992301</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>17.479450101611885</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>18.13225752445905</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>18.92169905906492</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>17.940362505277932</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>17.532889220877518</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>15.923643015719392</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>15.482770281777952</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>13.232254645432292</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>13.76664583808857</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>12.483499712994563</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>12.145254378551895</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>12.080884530345569</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>12.2399873627046</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>13.902065424409425</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>16.849718662083973</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>16.82724994148365</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>15.933359219222233</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>15.156670201713837</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6320,99 +6320,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.958471067749286</v>
+        <v>17.826838113656187</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.159055168651115</v>
+        <v>16.986487721113551</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.82367855194326</v>
+        <v>16.633937975958364</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.366346801887095</v>
+        <v>16.153188323474019</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.518790718572484</v>
+        <v>16.313438207635468</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175519111653134</v>
+        <v>17.003794708602985</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.551782791488815</v>
+        <v>18.450530662812543</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.207291633235982</v>
+        <v>19.139605164706772</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19</v>
+        <v>19.972904562346304</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.014602522545655</v>
+        <v>18.937049311126703</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.605443050162076</v>
+        <v>18.506938622037378</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.989537533296964</v>
+        <v>16.808289849926023</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.546840399242594</v>
+        <v>16.342924186321174</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.287011778298407</v>
+        <v>13.96737990351186</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.823614365030968</v>
+        <v>14.531459495760156</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.535158381206072</v>
+        <v>13.177027474827595</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.195513334831031</v>
+        <v>12.819990732915889</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.130877114156425</v>
+        <v>12.752044782031433</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.290638338842712</v>
+        <v>12.919986660632633</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.959594338714338</v>
+        <v>14.674402392432171</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.919445425077829</v>
+        <v>17.785814143310859</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.896883725408394</v>
+        <v>17.762097160454967</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.999293943964828</v>
+        <v>16.818545842512354</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.219390866202382</v>
+        <v>15.99870743514238</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6421,99 +6421,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>18.76509275121704</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>17.880513390645845</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>17.509408395745648</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>17.003356129972651</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>17.172040218563652</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>17.89873127221367</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>19.421611224013205</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>20.146952804954495</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>21.024110065627688</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>19.933736116975478</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>19.480988023197241</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>17.692936684132658</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>17.203078090864391</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>14.702505161591434</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>15.296273153431743</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>13.870555236660625</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>13.494727087279884</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>13.423205033717299</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>13.599985958560666</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>15.446739360454917</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>18.721909624537744</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>18.696944379426281</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>17.703732465802478</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>16.840744668570927</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6522,99 +6522,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.743573285407109</v>
+        <v>19.703347388777892</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.860008344298599</v>
+        <v>18.774539060178135</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.489328925832027</v>
+        <v>18.384878815532932</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.983856991559424</v>
+        <v>17.853523936471287</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.152347636316957</v>
+        <v>18.030642229491832</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.87820533393241</v>
+        <v>18.793667835824351</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.39933887480343</v>
+        <v>20.392691785213866</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.123848647260822</v>
+        <v>21.154300445202221</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21</v>
+        <v>22.075315568909076</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.910876472287303</v>
+        <v>20.930422922824253</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.458647581758083</v>
+        <v>20.455037424357101</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.672646747328226</v>
+        <v>18.577583518339292</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.183349914952341</v>
+        <v>18.063231995407612</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.685644597066663</v>
+        <v>15.437630419671006</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.278731666613178</v>
+        <v>16.061086811103333</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.854648737122501</v>
+        <v>14.564082998493657</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.479251580602718</v>
+        <v>14.169463441643877</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.407811547225522</v>
+        <v>14.094365285403164</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.584389742931418</v>
+        <v>14.279985256488699</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.4290253217369</v>
+        <v>16.219076328477662</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.700439680349181</v>
+        <v>19.658005105764634</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.675503064925067</v>
+        <v>19.631791598397594</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.683430148592706</v>
+        <v>18.588919089092602</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.821432010013162</v>
+        <v>17.682781901999476</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6623,99 +6623,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.63612439423602</v>
+        <v>20.641602026338749</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.710484932122345</v>
+        <v>19.668564729710432</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.32215411277641</v>
+        <v>19.260349235320216</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.792612086395586</v>
+        <v>18.703691742969916</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.969126095189196</v>
+        <v>18.88924424042002</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.729548445072052</v>
+        <v>19.688604399435039</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.323116916460737</v>
+        <v>21.363772346414528</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.082127154273245</v>
+        <v>22.161648085449947</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22</v>
+        <v>23.12652107219046</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.859013447158127</v>
+        <v>21.927109728673027</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.385249847556089</v>
+        <v>21.429086825516965</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.514201354343857</v>
+        <v>19.462230352545927</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.001604672807215</v>
+        <v>18.92338589995083</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.384961006450789</v>
+        <v>16.172755677750576</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.006290317404282</v>
+        <v>16.825900468774922</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.514393915080717</v>
+        <v>15.25761076032669</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.121120703488563</v>
+        <v>14.844199796007873</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.046278763760071</v>
+        <v>14.765525537089029</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.231265444975772</v>
+        <v>14.959984554416733</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.163740813248182</v>
+        <v>16.991413296500411</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.590936807984857</v>
+        <v>20.594100586991523</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.564812734683404</v>
+        <v>20.566638817368908</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.525498250906647</v>
+        <v>19.47410571238273</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.622452581918552</v>
+        <v>18.524819135428025</v>
       </c>
     </row>
   </sheetData>
@@ -6819,99 +6819,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>33.777166952190676</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>33.777166952190676</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>34.059058306316857</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>34.437492287498152</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>33.777166952190676</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>37.843398118129841</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>34.437492287498152</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>33.680624325135561</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>32.545322381591667</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.031586456866471</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>30.274718494503876</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>30.653152475685179</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.031586456866471</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>31.788454419229069</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>31.410020438047763</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.031586456866471</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>32.166888400410365</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>33.302190343954265</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6920,99 +6920,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>35.653676227312374</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>35.653676227312374</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.199999999999996</v>
+        <v>35.951228212223349</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>36.350686303470276</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>35.653676227312374</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38</v>
+        <v>39.945809124692609</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>36.350686303470276</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.82</v>
+        <v>35.551770120976421</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.68</v>
+        <v>34.353395847235646</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>32.755563482247936</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.4</v>
+        <v>31.956647299754088</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.780000000000005</v>
+        <v>32.356105391001023</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>32.755563482247936</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>33.554479664741791</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.155021573494864</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>32.755563482247936</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.299999999999997</v>
+        <v>33.953937755988719</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.44</v>
+        <v>35.152312029729494</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7021,99 +7021,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>37.53018550243408</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>37.53018550243408</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>37.843398118129841</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>38.263880319442393</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>37.53018550243408</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>42.048220131255377</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>38.263880319442393</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>37.422915916817288</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>36.161469312879625</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>34.479540507629409</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>33.638576105004304</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>34.059058306316864</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>34.479540507629409</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>34.900022708941961</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>34.479540507629409</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>35.740987111567073</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.002433715504736</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7122,99 +7122,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>39.406694777555785</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>39.406694777555785</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.800000000000004</v>
+        <v>39.73556802403634</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>40.177074335414517</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>39.406694777555785</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42</v>
+        <v>44.150631137818152</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>40.177074335414517</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.380000000000003</v>
+        <v>39.294061712658156</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.119999999999997</v>
+        <v>37.969542778523603</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>36.203517533010881</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>35.32050491025452</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.02000000000001</v>
+        <v>35.762011221632712</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>36.203517533010881</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>37.08653015576725</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>36.645023844389065</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>36.203517533010881</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.700000000000003</v>
+        <v>37.528036467145434</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7223,99 +7223,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>41.283204052677497</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>41.283204052677497</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.6</v>
+        <v>41.627737929942825</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>42.090268351386634</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>41.283204052677497</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44</v>
+        <v>46.25304214438092</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>42.090268351386634</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.160000000000004</v>
+        <v>41.165207508499023</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.840000000000003</v>
+        <v>39.777616244167596</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>37.927494558392354</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.002433715504736</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.640000000000008</v>
+        <v>37.464964136948552</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>37.927494558392354</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>38.852555401279979</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>38.390024979836156</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>37.927494558392354</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.400000000000006</v>
+        <v>39.315085822723788</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.720000000000006</v>
+        <v>40.702677087055214</v>
       </c>
     </row>
   </sheetData>
